--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-22/Sample-22.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-22/Sample-22.xlsx
@@ -182,20 +182,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="kncunmt3" xfId="1"/>
-    <cellStyle name="kncunmt3_Alternate" xfId="2"/>
-    <cellStyle name="bpsngrld" xfId="3"/>
-    <cellStyle name="bpsngrld_Alternate" xfId="4"/>
-    <cellStyle name="icbu0ha0" xfId="5"/>
-    <cellStyle name="icbu0ha0_Alternate" xfId="6"/>
-    <cellStyle name="cwrbrz0w" xfId="7"/>
-    <cellStyle name="cwrbrz0w_Alternate" xfId="8"/>
-    <cellStyle name="vtoijar3" xfId="9"/>
-    <cellStyle name="vtoijar3_Alternate" xfId="10"/>
-    <cellStyle name="5x4ylv2f" xfId="11"/>
-    <cellStyle name="5x4ylv2f_Alternate" xfId="12"/>
-    <cellStyle name="trdkbr0c" xfId="13"/>
-    <cellStyle name="trdkbr0c_Alternate" xfId="14"/>
+    <cellStyle name="4wxfwtv3" xfId="1"/>
+    <cellStyle name="4wxfwtv3_Alternate" xfId="2"/>
+    <cellStyle name="4h0dfgtt" xfId="3"/>
+    <cellStyle name="4h0dfgtt_Alternate" xfId="4"/>
+    <cellStyle name="osilwmyx" xfId="5"/>
+    <cellStyle name="osilwmyx_Alternate" xfId="6"/>
+    <cellStyle name="k20p20uh" xfId="7"/>
+    <cellStyle name="k20p20uh_Alternate" xfId="8"/>
+    <cellStyle name="j3utc4fl" xfId="9"/>
+    <cellStyle name="j3utc4fl_Alternate" xfId="10"/>
+    <cellStyle name="nsum4x1h" xfId="11"/>
+    <cellStyle name="nsum4x1h_Alternate" xfId="12"/>
+    <cellStyle name="xqvbange" xfId="13"/>
+    <cellStyle name="xqvbange_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-22/Sample-22.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-22/Sample-22.xlsx
@@ -182,20 +182,20 @@
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="4wxfwtv3" xfId="1"/>
-    <cellStyle name="4wxfwtv3_Alternate" xfId="2"/>
-    <cellStyle name="4h0dfgtt" xfId="3"/>
-    <cellStyle name="4h0dfgtt_Alternate" xfId="4"/>
-    <cellStyle name="osilwmyx" xfId="5"/>
-    <cellStyle name="osilwmyx_Alternate" xfId="6"/>
-    <cellStyle name="k20p20uh" xfId="7"/>
-    <cellStyle name="k20p20uh_Alternate" xfId="8"/>
-    <cellStyle name="j3utc4fl" xfId="9"/>
-    <cellStyle name="j3utc4fl_Alternate" xfId="10"/>
-    <cellStyle name="nsum4x1h" xfId="11"/>
-    <cellStyle name="nsum4x1h_Alternate" xfId="12"/>
-    <cellStyle name="xqvbange" xfId="13"/>
-    <cellStyle name="xqvbange_Alternate" xfId="14"/>
+    <cellStyle name="ypxd4qy4" xfId="1"/>
+    <cellStyle name="ypxd4qy4_Alternate" xfId="2"/>
+    <cellStyle name="kpgabje0" xfId="3"/>
+    <cellStyle name="kpgabje0_Alternate" xfId="4"/>
+    <cellStyle name="rux4g4du" xfId="5"/>
+    <cellStyle name="rux4g4du_Alternate" xfId="6"/>
+    <cellStyle name="xdjqvpvr" xfId="7"/>
+    <cellStyle name="xdjqvpvr_Alternate" xfId="8"/>
+    <cellStyle name="5nmfoz3f" xfId="9"/>
+    <cellStyle name="5nmfoz3f_Alternate" xfId="10"/>
+    <cellStyle name="mrs0hfcl" xfId="11"/>
+    <cellStyle name="mrs0hfcl_Alternate" xfId="12"/>
+    <cellStyle name="prkn4lff" xfId="13"/>
+    <cellStyle name="prkn4lff_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
